--- a/wandb.ai.xlsx
+++ b/wandb.ai.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzhang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87422D0F-2FC0-4D9B-9965-0330E516CF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318A417-C39F-EF41-AC31-042891C71BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="-30" windowWidth="29040" windowHeight="16440" xr2:uid="{673874A8-1A06-4EBD-8A63-D1CD2E7727F2}"/>
+    <workbookView xWindow="20" yWindow="1420" windowWidth="35840" windowHeight="20980" xr2:uid="{673874A8-1A06-4EBD-8A63-D1CD2E7727F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -60,18 +59,6 @@
     <t>Evaluate using transformers.GPT2LMHeadModel from scratch on Shakespeare character-level encoding</t>
   </si>
   <si>
-    <t>run-2023-08-01-20-30-02</t>
-  </si>
-  <si>
-    <t>run-2023-07-31-22-30-53</t>
-  </si>
-  <si>
-    <t>w/o shift in y</t>
-  </si>
-  <si>
-    <t>w/ shift in y</t>
-  </si>
-  <si>
     <t>shakespeare-char-ubuntu</t>
   </si>
   <si>
@@ -136,13 +123,19 @@
   </si>
   <si>
     <t>Windows for initial run and accidentally used Azure VM for second run</t>
+  </si>
+  <si>
+    <t>omni-reach-optimization-evaluation</t>
+  </si>
+  <si>
+    <t>Compare the optimized solution with alternative budget allocations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +144,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,16 +179,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,24 +517,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC993A0-CFE1-4B4B-A2C5-CF9414D5F68D}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="60.5" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -534,149 +547,167 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
@@ -685,35 +716,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FA4F72-40E1-414E-A242-C0E46A8994FA}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>